--- a/medicine/Mort/Cimetière_Vestre/Cimetière_Vestre.xlsx
+++ b/medicine/Mort/Cimetière_Vestre/Cimetière_Vestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vestre</t>
+          <t>Cimetière_Vestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Vestre, en danois « Vestre Kirkegård », est situé à Copenhague dans le quartier de Kongens Enghave. Le nom signifie « cimetière de l'Ouest » en raison de son emplacement par rapport au centre-ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Vestre, en danois « Vestre Kirkegård », est situé à Copenhague dans le quartier de Kongens Enghave. Le nom signifie « cimetière de l'Ouest » en raison de son emplacement par rapport au centre-ville.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vestre</t>
+          <t>Cimetière_Vestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec ses 54 hectares, le cimetière Vestre est un des plus grands cimetières de Copenhague avec le cimetière Assistens. Il est situé au sud-ouest du centre-ville historique d'Indre By, près des districts de Valby et de Vesterbro.
 Le cimetière Vestre a ouvert ses portes le 2 novembre 1870.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Vestre</t>
+          <t>Cimetière_Vestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Carl Aller  (1845–1926), éditeur
 Hans Niels Andersen (1852–1937), homme d'affaires
